--- a/Input/WageDetails.xlsx
+++ b/Input/WageDetails.xlsx
@@ -3,8 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="2022-09-01_15th" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="2022-09-01_30th" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="2022-09-15_15th" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="2022-09-30_30th" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="2022-10-15_15th" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="2022-10-31_30th" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="2022-11-15_15th" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="2022-11-30_30th" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="2022-12-15_15th" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="2022-12-31-30th" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -20,10 +26,10 @@
     <t>DaysWorked</t>
   </si>
   <si>
-    <t>Janet</t>
+    <t>Janet Apostol</t>
   </si>
   <si>
-    <t>Riza</t>
+    <t>Rizalyn Repalda</t>
   </si>
 </sst>
 </file>
@@ -77,6 +83,30 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -322,6 +352,252 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">

--- a/Input/WageDetails.xlsx
+++ b/Input/WageDetails.xlsx
@@ -21,12 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>DaysWorked</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>Riza</t>
   </si>
   <si>
     <t>Janet Apostol</t>
@@ -50,7 +56,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -102,10 +108,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +441,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>13</v>
@@ -446,7 +452,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>13</v>
@@ -540,7 +546,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="13.65">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>13</v>
@@ -551,7 +557,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="13.65">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>13</v>
@@ -645,7 +651,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="13.65">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>13</v>
@@ -656,7 +662,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="13.65">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>13</v>
@@ -750,7 +756,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="13.65">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>26</v>
@@ -761,7 +767,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="13.65">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>26</v>
@@ -855,7 +861,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="13.65">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>13</v>
@@ -866,7 +872,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="13.65">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>13</v>
@@ -960,7 +966,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="13.65">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>26</v>
@@ -971,7 +977,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="13.65">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>26</v>
@@ -1065,7 +1071,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="13.65">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>13</v>
@@ -1076,7 +1082,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="13.65">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>13</v>
@@ -1157,7 +1163,7 @@
     <col min="5" max="5" style="4" width="12.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="13.65">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1174,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="13.65">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1185,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="13.65">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1190,49 +1196,49 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="13.65">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="13.65">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="13.65">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="13.65">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="13.65">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="13.65">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="13.65">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
